--- a/Basic/Best and Worse Case Scenario Case.xlsx
+++ b/Basic/Best and Worse Case Scenario Case.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeCarpenter\Dropbox\Carpe Diem Innovations\FPA Cert\AFP Cases\4 Class session\Class 4 - Applied FP&amp;A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\FPAC prep\Boot Camp Materials\Class 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E0D8B7-7316-4AC4-8FDE-3A70157A2BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A874F90-94A6-4F6E-8B86-AC87EECC96E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Case" sheetId="3" r:id="rId1"/>
-    <sheet name="Scenario Answer" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Scenario Answer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -734,30 +734,30 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>25</v>
       </c>
@@ -772,7 +772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>26</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>21</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -817,7 +817,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>22</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>28</v>
       </c>
@@ -847,7 +847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>23</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35" t="s">
         <v>9</v>
       </c>
@@ -877,8 +877,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="D14" s="45"/>
       <c r="E14" s="46"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -906,7 +906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -917,14 +917,14 @@
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -935,14 +935,14 @@
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="23"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -951,14 +951,14 @@
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="23"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -969,14 +969,14 @@
       <c r="D22" s="22"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="23"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -987,14 +987,14 @@
       <c r="D24" s="22"/>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="23"/>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -1003,14 +1003,14 @@
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="23"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
@@ -1021,14 +1021,14 @@
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="23"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>15</v>
       </c>
@@ -1057,14 +1057,14 @@
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="D34" s="22"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>17</v>
       </c>
@@ -1082,14 +1082,14 @@
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -1100,14 +1100,14 @@
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
@@ -1132,30 +1132,30 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>25</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>26</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>21</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>28</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>23</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="35" t="s">
         <v>9</v>
       </c>
@@ -1275,8 +1275,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="D14" s="45"/>
       <c r="E14" s="46"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1324,14 +1324,14 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -1351,14 +1351,14 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="23"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1379,14 +1379,14 @@
         <v>713</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="23"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -1406,14 +1406,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="23"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1433,14 +1433,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="23"/>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -1461,14 +1461,14 @@
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="23"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
@@ -1488,14 +1488,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="23"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>15</v>
       </c>
@@ -1557,14 +1557,14 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>17</v>
       </c>
@@ -1606,14 +1606,14 @@
         <v>0.22956521739130434</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -1633,14 +1633,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
